--- a/Documentation/Requirements table.xlsx
+++ b/Documentation/Requirements table.xlsx
@@ -5,23 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Razni\uneversitet\MAGISTUR\RSAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\gearbox\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -29,135 +27,27 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Interation</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>Allocation</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-1</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-2</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-3</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-4</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-5</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-6</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-7</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-8</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-9</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-10</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-11</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-12</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-13</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-14</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-15</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-16</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-17</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-18</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-19</t>
-  </si>
-  <si>
-    <t>SysRS-HUB-20</t>
-  </si>
-  <si>
     <t>1     Input</t>
   </si>
   <si>
     <t>1.2   Wrong input data</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Enumeration</t>
-  </si>
-  <si>
-    <t>Float</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>Heading/Info</t>
-  </si>
-  <si>
-    <t>2.1.1      Current gear</t>
-  </si>
-  <si>
-    <t>2.1.2      Next gear</t>
-  </si>
-  <si>
     <t>2.2   Send</t>
   </si>
   <si>
     <t>2.1   Output format</t>
   </si>
   <si>
-    <t>2.2.1     When calculated gear is the same as current gear, don’t send output</t>
-  </si>
-  <si>
-    <t>2.2.2     When calculated gear is different from current gear, send output</t>
-  </si>
-  <si>
-    <t>2    Output</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.1    Input data format </t>
   </si>
   <si>
     <t>1.1.1      Gears count</t>
   </si>
   <si>
-    <t>1.1.2      Engine type - disel/petrol/hybrid</t>
-  </si>
-  <si>
     <t>1.1.3      Engine rotation speed (RPM)</t>
   </si>
   <si>
@@ -180,6 +70,183 @@
   </si>
   <si>
     <t>1.2.3      If input data is invalid in sequence of 1000 messages, send message for vehicle fault</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-1</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-2</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-3</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-4</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-5</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-6</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-7</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-8</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-9</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-10</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-11</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-12</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-13</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-14</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-15</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-16</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-17</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-18</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-19</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-20</t>
+  </si>
+  <si>
+    <t>1.2.1      Wrong gears count is an integer less than or equal to 0 and greater than given gearbox gears count</t>
+  </si>
+  <si>
+    <t>1.2.1      Wrong RPM is an integer less than 0 and greater than 9000</t>
+  </si>
+  <si>
+    <t>1.2.2      Wrong driving mode is a mode different than normal/sport/economycal</t>
+  </si>
+  <si>
+    <t>1.2.1      Wrong acceleration level is an integer less than 0 and greater than 100</t>
+  </si>
+  <si>
+    <t>1.2.1      Wrong current gear is an integer less than -1 (-1: reverse, 0: neutral) and greater than gears count</t>
+  </si>
+  <si>
+    <t>3    Output</t>
+  </si>
+  <si>
+    <t>2    Calculation</t>
+  </si>
+  <si>
+    <t>2.1   If acceleration level is less than 65 %, normal calculation is used, else extreme calculation</t>
+  </si>
+  <si>
+    <t>2.1   Normal calculation</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>2.1.2      If current RPM is greater than or equal to upper RPM, current gear should be increased by 1</t>
+  </si>
+  <si>
+    <t>2.1.1      The lower RPM boundary for diesel engine is equal to 1150</t>
+  </si>
+  <si>
+    <t>1.1.2      Engine type - diesel/gasoline</t>
+  </si>
+  <si>
+    <t>1.2.2      Wrong engine type is a type different than diesel/gasoline</t>
+  </si>
+  <si>
+    <t>2.1.1      The lower RPM boundary for gasoline engine is equal to 1500</t>
+  </si>
+  <si>
+    <t>2.1.2      If driving mode is sport, upper RPM boundary is doubled</t>
+  </si>
+  <si>
+    <t>2.1.2      If driving mode is sport, lower RPM boundary is doubled</t>
+  </si>
+  <si>
+    <t>2.1.2      If driving mode is economycal, lower RPM boundary is decreased by 200 RPM</t>
+  </si>
+  <si>
+    <t>2.1.2      If driving mode is economycal, upper RPM boundary is decreased by 500 RPM</t>
+  </si>
+  <si>
+    <t>2.1.1      The upper RPM boundary for diesel engine is equal to 2500</t>
+  </si>
+  <si>
+    <t>2.1.1      The upper RPM boundary for gasoline engine is equal to 3000</t>
+  </si>
+  <si>
+    <t>2.1.2      If current RPM is lower than or equal to lower RPM, current gear should be decreased by 1</t>
+  </si>
+  <si>
+    <t>2.1   Extreme calculation</t>
+  </si>
+  <si>
+    <t>1.2.1      Wrong vehicle speed is an integer less than 0 and greater than 300</t>
+  </si>
+  <si>
+    <t>2.1   Gearbox provides gear ratios as max speed per gear: first gear - 30 km/h; second gear - 70 km/h; third gear - 120 km/h; fourth gear - 170 km/h; fifth gear - 300 km/h;</t>
+  </si>
+  <si>
+    <t>2.1.1      If driving mode is economycal, offset is increased by 40 km/h</t>
+  </si>
+  <si>
+    <t>2.1.1      If driving mode is normal and acceleration level is between 65 % and 85 %, offset is increased by 25 km/h</t>
+  </si>
+  <si>
+    <t>2.1.1      If driving mode is normal and acceleration level is greater than or equal to 85 %, offset is increased by 15 km/h</t>
+  </si>
+  <si>
+    <t>2.1.1      Current vehicle speed offset equals 15 km/h</t>
+  </si>
+  <si>
+    <t>2.1.1      Offset is added to the current vehicle speed</t>
+  </si>
+  <si>
+    <t>2.1.1      Proper gear is selected by the gear, which meets expression: current vehicle speed + offset &lt;= max speed per gear ratio, starting from the lowest one</t>
+  </si>
+  <si>
+    <t>2.1   Gearbox computer doesn't output gear lower than 1</t>
+  </si>
+  <si>
+    <t>2.1   Gearbox computer doesn't output gear higher than gearbox gears count</t>
+  </si>
+  <si>
+    <t>2.2.1     When calculated gear is the same as current gear, gearbox computer doesn’t send output</t>
+  </si>
+  <si>
+    <t>2.2.2     When calculated gear is different from current gear, gearbox computer sends output</t>
+  </si>
+  <si>
+    <t>2.1.1      Current gear as integer value</t>
+  </si>
+  <si>
+    <t>2.1.1      Next gear as integer value</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
@@ -263,12 +330,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -575,296 +646,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="93.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="163.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>35</v>
       </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/Requirements table.xlsx
+++ b/Documentation/Requirements table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\gearbox\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\gearbox\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -30,48 +30,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>1     Input</t>
-  </si>
-  <si>
-    <t>1.2   Wrong input data</t>
-  </si>
-  <si>
-    <t>2.2   Send</t>
-  </si>
-  <si>
-    <t>2.1   Output format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1    Input data format </t>
-  </si>
-  <si>
-    <t>1.1.1      Gears count</t>
-  </si>
-  <si>
-    <t>1.1.3      Engine rotation speed (RPM)</t>
-  </si>
-  <si>
-    <t>1.1.4      Vehicle speed</t>
-  </si>
-  <si>
-    <t>1.1.5      Driving mode - normal/sport/economycal</t>
-  </si>
-  <si>
-    <t>1.1.6      Acceleration level</t>
-  </si>
-  <si>
-    <t>1.1.7      Current gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1      If some of the values is invalid, calculations are not being executed </t>
-  </si>
-  <si>
-    <t>1.2.2      If input data is invalid, send diagnostic message</t>
-  </si>
-  <si>
-    <t>1.2.3      If input data is invalid in sequence of 1000 messages, send message for vehicle fault</t>
-  </si>
-  <si>
     <t>SysGB-COMP-1</t>
   </si>
   <si>
@@ -132,121 +90,364 @@
     <t>SysGB-COMP-20</t>
   </si>
   <si>
-    <t>1.2.1      Wrong gears count is an integer less than or equal to 0 and greater than given gearbox gears count</t>
-  </si>
-  <si>
-    <t>1.2.1      Wrong RPM is an integer less than 0 and greater than 9000</t>
-  </si>
-  <si>
-    <t>1.2.2      Wrong driving mode is a mode different than normal/sport/economycal</t>
-  </si>
-  <si>
-    <t>1.2.1      Wrong acceleration level is an integer less than 0 and greater than 100</t>
-  </si>
-  <si>
-    <t>1.2.1      Wrong current gear is an integer less than -1 (-1: reverse, 0: neutral) and greater than gears count</t>
-  </si>
-  <si>
-    <t>3    Output</t>
-  </si>
-  <si>
-    <t>2    Calculation</t>
-  </si>
-  <si>
-    <t>2.1   If acceleration level is less than 65 %, normal calculation is used, else extreme calculation</t>
-  </si>
-  <si>
-    <t>2.1   Normal calculation</t>
-  </si>
-  <si>
     <t>Commit</t>
   </si>
   <si>
     <t>Not done</t>
   </si>
   <si>
-    <t>2.1.2      If current RPM is greater than or equal to upper RPM, current gear should be increased by 1</t>
-  </si>
-  <si>
-    <t>2.1.1      The lower RPM boundary for diesel engine is equal to 1150</t>
-  </si>
-  <si>
-    <t>1.1.2      Engine type - diesel/gasoline</t>
-  </si>
-  <si>
-    <t>1.2.2      Wrong engine type is a type different than diesel/gasoline</t>
-  </si>
-  <si>
-    <t>2.1.1      The lower RPM boundary for gasoline engine is equal to 1500</t>
-  </si>
-  <si>
-    <t>2.1.2      If driving mode is sport, upper RPM boundary is doubled</t>
-  </si>
-  <si>
-    <t>2.1.2      If driving mode is sport, lower RPM boundary is doubled</t>
-  </si>
-  <si>
-    <t>2.1.2      If driving mode is economycal, lower RPM boundary is decreased by 200 RPM</t>
-  </si>
-  <si>
-    <t>2.1.2      If driving mode is economycal, upper RPM boundary is decreased by 500 RPM</t>
-  </si>
-  <si>
-    <t>2.1.1      The upper RPM boundary for diesel engine is equal to 2500</t>
-  </si>
-  <si>
-    <t>2.1.1      The upper RPM boundary for gasoline engine is equal to 3000</t>
-  </si>
-  <si>
-    <t>2.1.2      If current RPM is lower than or equal to lower RPM, current gear should be decreased by 1</t>
-  </si>
-  <si>
-    <t>2.1   Extreme calculation</t>
-  </si>
-  <si>
-    <t>1.2.1      Wrong vehicle speed is an integer less than 0 and greater than 300</t>
-  </si>
-  <si>
-    <t>2.1   Gearbox provides gear ratios as max speed per gear: first gear - 30 km/h; second gear - 70 km/h; third gear - 120 km/h; fourth gear - 170 km/h; fifth gear - 300 km/h;</t>
-  </si>
-  <si>
-    <t>2.1.1      If driving mode is economycal, offset is increased by 40 km/h</t>
-  </si>
-  <si>
-    <t>2.1.1      If driving mode is normal and acceleration level is between 65 % and 85 %, offset is increased by 25 km/h</t>
-  </si>
-  <si>
-    <t>2.1.1      If driving mode is normal and acceleration level is greater than or equal to 85 %, offset is increased by 15 km/h</t>
-  </si>
-  <si>
-    <t>2.1.1      Current vehicle speed offset equals 15 km/h</t>
-  </si>
-  <si>
-    <t>2.1.1      Offset is added to the current vehicle speed</t>
-  </si>
-  <si>
-    <t>2.1.1      Proper gear is selected by the gear, which meets expression: current vehicle speed + offset &lt;= max speed per gear ratio, starting from the lowest one</t>
-  </si>
-  <si>
-    <t>2.1   Gearbox computer doesn't output gear lower than 1</t>
-  </si>
-  <si>
-    <t>2.1   Gearbox computer doesn't output gear higher than gearbox gears count</t>
-  </si>
-  <si>
-    <t>2.2.1     When calculated gear is the same as current gear, gearbox computer doesn’t send output</t>
-  </si>
-  <si>
-    <t>2.2.2     When calculated gear is different from current gear, gearbox computer sends output</t>
-  </si>
-  <si>
-    <t>2.1.1      Current gear as integer value</t>
-  </si>
-  <si>
-    <t>2.1.1      Next gear as integer value</t>
-  </si>
-  <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.2.7</t>
+  </si>
+  <si>
+    <t>1.2.8</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>1.2.10</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Output format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Gears count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Engine rotation speed (RPM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Vehicle speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Driving mode - normal/sport/economycal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Acceleration level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Current gear</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>2.5.4</t>
+  </si>
+  <si>
+    <t>2.5.5</t>
+  </si>
+  <si>
+    <t>2.5.6</t>
+  </si>
+  <si>
+    <t>2.5.7</t>
+  </si>
+  <si>
+    <t>2.5.8</t>
+  </si>
+  <si>
+    <t>2.5.9</t>
+  </si>
+  <si>
+    <t>2.5.10</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>2.6.3</t>
+  </si>
+  <si>
+    <t>2.6.4</t>
+  </si>
+  <si>
+    <t>2.6.5</t>
+  </si>
+  <si>
+    <t>2.6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Gearbox computer doesn't output gear higher than gearbox gears count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Gearbox provides gear ratios as max speed per gear: first gear - 30 km/h; second gear - 70 km/h; third gear - 120 km/h; fourth gear - 170 km/h; fifth gear - 300 km/h;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If acceleration level is less than 65 %, normal calculation is used, else extreme calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If driving mode is economycal, upper RPM boundary is decreased by 500 RPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Extreme calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Normal calculation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gearbox computer doesn't output gear lower than 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wrong input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Input data format </t>
+  </si>
+  <si>
+    <t>SysGB-COMP-21</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-22</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-23</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-24</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-25</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-26</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-27</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-28</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-29</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-30</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-31</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-32</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-33</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-34</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-35</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-36</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-37</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-38</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-39</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-40</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-41</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-42</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-43</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-44</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-45</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-46</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-47</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-48</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-49</t>
+  </si>
+  <si>
+    <t>SysGB-COMP-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Engine type - diesel/gasoline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Wrong gears count is an integer less than or equal to 0 and greater than given gearbox gears count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Wrong engine type is a type different than diesel/gasoline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Wrong RPM is an integer less than 0 and greater than 9000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Wrong vehicle speed is an integer less than 0 and greater than 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Wrong driving mode is a mode different than normal/sport/economycal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Wrong acceleration level is an integer less than 0 and greater than 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Wrong current gear is an integer less than -1 (-1: reverse, 0: neutral) and greater than gears count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If some of the values is invalid, calculations are not being executed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If input data is invalid, send diagnostic message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If input data is invalid in sequence of 1000 messages, send message for vehicle fault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     The upper RPM boundary for diesel engine is equal to 2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     The upper RPM boundary for gasoline engine is equal to 3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If driving mode is sport, upper RPM boundary is doubled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If current RPM is greater than or equal to upper RPM, current gear should be increased by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     The lower RPM boundary for diesel engine is equal to 1150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     The lower RPM boundary for gasoline engine is equal to 1500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If driving mode is sport, lower RPM boundary is doubled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If driving mode is economycal, lower RPM boundary is decreased by 200 RPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If current RPM is lower than or equal to lower RPM, current gear should be decreased by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Current vehicle speed offset equals 15 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If driving mode is economycal, offset is increased by 40 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If driving mode is normal and acceleration level is between 65 % and 85 %, offset is increased by 25 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     If driving mode is normal and acceleration level is greater than or equal to 85 %, offset is increased by 15 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Offset is added to the current vehicle speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Proper gear is selected by the gear, which meets expression: current vehicle speed + offset &lt;= max speed per gear ratio, starting from the lowest one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Current gear as integer value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Next gear as integer value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    When calculated gear is different from current gear, gearbox computer sends output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    When calculated gear is the same as current gear, gearbox computer doesn’t send output</t>
   </si>
 </sst>
 </file>
@@ -336,8 +537,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -648,9 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -675,710 +878,857 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
+      <c r="C21" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>84</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2.1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>85</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2.2000000000000002</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>86</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2.2999999999999998</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2.4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>88</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2.5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
+        <v>91</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
+        <v>93</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
+        <v>94</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>54</v>
+        <v>96</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
+        <v>98</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>99</v>
+      </c>
+      <c r="B38" s="6">
+        <v>2.6</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
+        <v>101</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" t="s">
-        <v>65</v>
+        <v>103</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" t="s">
-        <v>67</v>
+        <v>104</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
+        <v>105</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>106</v>
+      </c>
+      <c r="B45" s="5">
+        <v>3</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>107</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3.1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
+        <v>108</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" t="s">
-        <v>74</v>
+        <v>109</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>110</v>
+      </c>
+      <c r="B49" s="6">
+        <v>3.2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" t="s">
-        <v>71</v>
+      <c r="C50" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" t="s">
-        <v>72</v>
+        <v>112</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Requirements table.xlsx
+++ b/Documentation/Requirements table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">State</t>
   </si>
   <si>
-    <t xml:space="preserve">Commit</t>
-  </si>
-  <si>
     <t xml:space="preserve">SysGB-COMP-1</t>
   </si>
   <si>
@@ -50,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">Input data format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6394f8e</t>
   </si>
   <si>
     <t xml:space="preserve">SysGB-COMP-3</t>
@@ -515,18 +518,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -549,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,31 +570,28 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -609,16 +603,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Accent1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Total" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -691,18 +688,19 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="161.719387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="159.964285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -718,858 +716,855 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>1.1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>1.2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>6065600</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>6065600</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>6065600</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>6065600</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>2.1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>2.2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>2.3</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>2.4</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2.5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>6065600</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>6065600</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>6065600</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>6065600</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>2.6</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>3.1</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>3.2</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
